--- a/publication/analyses/outputs/rmse_z/idpt_mean_rmse-z_by_z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_mean_rmse-z_by_z.xlsx
@@ -571,37 +571,37 @@
         <v>2551.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9564986125021606</v>
+        <v>0.95649861250216</v>
       </c>
       <c r="E2" t="n">
         <v>2.499529780564274</v>
       </c>
       <c r="F2" t="n">
-        <v>2.830497049566576</v>
+        <v>2.830495891047249</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.001980151458009651</v>
+        <v>-0.001979873376612398</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02444294005031747</v>
+        <v>-0.02444271871130771</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06122812043460785</v>
+        <v>0.06122852859035927</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3047443271464244</v>
+        <v>0.3047443096334153</v>
       </c>
       <c r="K2" t="n">
-        <v>-8.666402235345082e-14</v>
+        <v>-8.839150240726462e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.025587117056013e-14</v>
+        <v>2.269396791699695e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6502026053880472</v>
+        <v>0.6502026053816155</v>
       </c>
       <c r="N2" t="n">
-        <v>3.469881992323765e-16</v>
+        <v>1.371791047178399e-15</v>
       </c>
       <c r="O2" t="n">
         <v>47.98040752351097</v>
@@ -616,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1483950347071337</v>
+        <v>0.1483950347109594</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1631432649889073</v>
+        <v>0.1631432650054111</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7445047229180637</v>
+        <v>0.7445047229290161</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.830497049566576</v>
+        <v>-2.830495891047249</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="X2" t="n">
         <v>5104</v>

--- a/publication/analyses/outputs/rmse_z/idpt_mean_rmse-z_by_z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_mean_rmse-z_by_z.xlsx
@@ -571,37 +571,37 @@
         <v>2551.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.95649861250216</v>
+        <v>0.9564986125021595</v>
       </c>
       <c r="E2" t="n">
         <v>2.499529780564274</v>
       </c>
       <c r="F2" t="n">
-        <v>2.830495891047249</v>
+        <v>2.830497093009651</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.001979873376612398</v>
+        <v>-0.00198016190711412</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02444271871130771</v>
+        <v>-0.02444294827809886</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06122852859035927</v>
+        <v>0.06122810032316131</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3047443096334153</v>
+        <v>0.30474432631549</v>
       </c>
       <c r="K2" t="n">
-        <v>-8.839150240726462e-14</v>
+        <v>-1.253122468372605e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>2.269396791699695e-14</v>
+        <v>2.053849514702868e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6502026053816155</v>
+        <v>0.6502026053629164</v>
       </c>
       <c r="N2" t="n">
-        <v>1.371791047178399e-15</v>
+        <v>-1.674035344340753e-16</v>
       </c>
       <c r="O2" t="n">
         <v>47.98040752351097</v>
@@ -616,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1483950347109594</v>
+        <v>0.1483950347021842</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1631432650054111</v>
+        <v>0.1631432649771503</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7445047229290161</v>
+        <v>0.7445047229241942</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.830495891047249</v>
+        <v>-2.830497093009651</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="X2" t="n">
         <v>5104</v>

--- a/publication/analyses/outputs/rmse_z/idpt_mean_rmse-z_by_z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_mean_rmse-z_by_z.xlsx
@@ -571,37 +571,37 @@
         <v>2551.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9564986125021595</v>
+        <v>0.9564986125021606</v>
       </c>
       <c r="E2" t="n">
         <v>2.499529780564274</v>
       </c>
       <c r="F2" t="n">
-        <v>2.830497093009651</v>
+        <v>2.830496696653588</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.00198016190711412</v>
+        <v>-0.001980065754529533</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02444294827809886</v>
+        <v>-0.02444287285444371</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06122810032316131</v>
+        <v>0.06122824673142391</v>
       </c>
       <c r="J2" t="n">
-        <v>0.30474432631549</v>
+        <v>0.3047443216464223</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.253122468372605e-13</v>
+        <v>-1.055862337652763e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>2.053849514702868e-14</v>
+        <v>-6.200412875576036e-16</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6502026053629164</v>
+        <v>0.650202605372701</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.674035344340753e-16</v>
+        <v>7.974725025236577e-16</v>
       </c>
       <c r="O2" t="n">
         <v>47.98040752351097</v>
@@ -616,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1483950347021842</v>
+        <v>0.1483950346830777</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1631432649771503</v>
+        <v>0.163143264979342</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7445047229241942</v>
+        <v>0.7445047229192981</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.830497093009651</v>
+        <v>-2.830496696653588</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="X2" t="n">
         <v>5104</v>
